--- a/Registros/29-12-2025.xlsx
+++ b/Registros/29-12-2025.xlsx
@@ -6,13 +6,14 @@
   <sheets>
     <sheet sheetId="1" name="Docentes" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Mañana" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="Tarde" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="50">
   <si>
     <t>REGISTRO DE ASISTENCIA - DOCENTES</t>
   </si>
@@ -50,6 +51,9 @@
     <t>L, M, MI, J, V</t>
   </si>
   <si>
+    <t>10:06P.M.</t>
+  </si>
+  <si>
     <t>SANCHEZ SOLANO CARLOS ALBERTO</t>
   </si>
   <si>
@@ -120,6 +124,45 @@
   </si>
   <si>
     <t>VASQUEZ ORTIZ GABRIELA</t>
+  </si>
+  <si>
+    <t>REGISTRO DE ASISTENCIA - ANUAL - TARDE</t>
+  </si>
+  <si>
+    <t>GONZALES RUIZ MATEO</t>
+  </si>
+  <si>
+    <t>TARDE</t>
+  </si>
+  <si>
+    <t>LOPEZ CASTILLO CAMILA ANDREA</t>
+  </si>
+  <si>
+    <t>PAREDES RAMOS LUCIA</t>
+  </si>
+  <si>
+    <t>ROMERO VARGAS DANIEL ALEJANDRO</t>
+  </si>
+  <si>
+    <t>SILVA FLORES VALERIA</t>
+  </si>
+  <si>
+    <t>REGISTRO DE ASISTENCIA - SEMIANUAL - TARDE</t>
+  </si>
+  <si>
+    <t>ALIAGA URIONDO JHERSON LEONARDO</t>
+  </si>
+  <si>
+    <t>10:02P.M.</t>
+  </si>
+  <si>
+    <t>BENITES GUERRA RICARDO MANUEL</t>
+  </si>
+  <si>
+    <t>ESPINOZA REYES ALEJANDRA PAOLA</t>
+  </si>
+  <si>
+    <t>SALAZAR TORRES SEBASTIAN</t>
   </si>
 </sst>
 </file>
@@ -654,8 +697,8 @@
       <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>9</v>
+      <c r="E4" s="6" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -663,7 +706,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>7</v>
@@ -680,16 +723,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -715,7 +758,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -727,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>3</v>
@@ -744,16 +787,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -761,13 +804,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>9</v>
@@ -778,16 +821,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -795,16 +838,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -812,10 +855,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>11</v>
@@ -826,7 +869,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -838,7 +881,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>3</v>
@@ -855,16 +898,16 @@
         <v>1</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -872,10 +915,10 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -889,16 +932,16 @@
         <v>3</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -906,10 +949,10 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
@@ -923,16 +966,243 @@
         <v>5</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A9:E9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E14"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>3</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>4</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
